--- a/test copy.xlsx
+++ b/test copy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\trc_auto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trc_auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC41601-0E34-408D-B724-17680C19C900}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C8F9E8-EEA5-490D-B224-665744B30444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-2715" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,67 +91,67 @@
     <t>VTC-វៀតធេល (ខេមបូឌា)</t>
   </si>
   <si>
-    <t>លើអាកាស (Overhead)</t>
-  </si>
-  <si>
     <t>ប្រវែងខ្សែកាប្លិ៍ដែលត្រូវជួសថ្មីគឺត្រូវតិចជាង២០០ម៉ែត្រ-Length of​ replacement broken cable must be less than 200m (ករណីប្រវែងខ្សែច្រើនជាង ២០០ម៉ែត្រក្រុមហ៊ុនត្រូវអនុវត្តនីតិវិធីសាងសង់ថ្មី- If length of cable is larger than 200m,company has to follow the ne</t>
   </si>
   <si>
+    <t>មូលហេតុនៃការកាត់ផ្តាច់ Cable Incident</t>
+  </si>
+  <si>
+    <t>កាលបរិច្ឆេទគ្រោងបញ្ចប់ការថែទាំ-Finished Date of Repairing:</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer </t>
+  </si>
+  <si>
+    <t>Heng Kim</t>
+  </si>
+  <si>
+    <t>COC711155</t>
+  </si>
+  <si>
+    <t>0886466111</t>
+  </si>
+  <si>
+    <t>Backbone</t>
+  </si>
+  <si>
+    <t>8fo</t>
+  </si>
+  <si>
+    <t>ភូមិព្រៃកន្ទ្រង់  ឃុំធម្មតាអរ ស្រុកសំរោងទង ខេត្តកំពង់ស្ពឺ</t>
+  </si>
+  <si>
+    <t>ភូមិព្រៃកន្ទ្រង់  ឃុំធម្មតាអរ ស្រុកសំរោងទង ខេត្តកំពង់ស្</t>
+  </si>
+  <si>
+    <t>Kampong Speu</t>
+  </si>
+  <si>
+    <t>11.389672, 104.455495</t>
+  </si>
+  <si>
+    <t>11.389726, 104.454134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car pull down cable 8fo </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=11im8fT7b232386TzfOeiFX48_R-hF97Z</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=16jpxUStaOuj4-qSrMoTC4vxQM5X4JA3O</t>
+  </si>
+  <si>
+    <t>លើអាកាស</t>
+  </si>
+  <si>
+    <t>Fiber Optical Cable Slicing/Fiber Optical Cleaver, ជួសខ្សែកាប្លិ៍ថ្មី (ករណីនេះចំណុចចាប់ផ្តើមនិងបញ្ចប់ Lat/Long ត្រូវផ្សេងពីគ្នា A--&gt;B)</t>
+  </si>
+  <si>
     <t>ចំនួនខ្សែកាប្លិ៍xចំនួនបណ្តូលខ្សែកាប្លិ៍ -Number of cable * Core:</t>
-  </si>
-  <si>
-    <t>មូលហេតុនៃការកាត់ផ្តាច់ Cable Incident</t>
-  </si>
-  <si>
-    <t>កាលបរិច្ឆេទគ្រោងបញ្ចប់ការថែទាំ-Finished Date of Repairing:</t>
-  </si>
-  <si>
-    <t>Email Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer </t>
-  </si>
-  <si>
-    <t>Heng Kim</t>
-  </si>
-  <si>
-    <t>COC711155</t>
-  </si>
-  <si>
-    <t>0886466111</t>
-  </si>
-  <si>
-    <t>Backbone</t>
-  </si>
-  <si>
-    <t>8fo</t>
-  </si>
-  <si>
-    <t>ភូមិព្រៃកន្ទ្រង់  ឃុំធម្មតាអរ ស្រុកសំរោងទង ខេត្តកំពង់ស្ពឺ</t>
-  </si>
-  <si>
-    <t>ភូមិព្រៃកន្ទ្រង់  ឃុំធម្មតាអរ ស្រុកសំរោងទង ខេត្តកំពង់ស្</t>
-  </si>
-  <si>
-    <t>Kampong Speu</t>
-  </si>
-  <si>
-    <t>11.389672, 104.455495</t>
-  </si>
-  <si>
-    <t>11.389726, 104.454134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car pull down cable 8fo </t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=11im8fT7b232386TzfOeiFX48_R-hF97Z</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=16jpxUStaOuj4-qSrMoTC4vxQM5X4JA3O</t>
-  </si>
-  <si>
-    <t>Fiber Optical Cable Slicing/Fiber Optical Cleaver, ជួសខ្សែកាប្លិ៍ថ្មី (ករណីនេះចំណុចចាប់ផ្តើមនិងបញ្ចប់ Lat/Long ត្រូវផ្សេងពីគ្នា A--&gt;B) (Replace with a new cable; in this case, the start and end Lat/Long must be different A--&gt;B)</t>
   </si>
 </sst>
 </file>
@@ -159,7 +159,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -189,9 +189,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,19 +542,23 @@
   </sheetPr>
   <dimension ref="A1:Z105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X7" sqref="X7"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="51.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="83.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="78" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="47.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="235.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -584,8 +589,8 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>25</v>
+      <c r="J1" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
@@ -606,16 +611,16 @@
         <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R1" t="s">
         <v>15</v>
       </c>
       <c r="S1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U1" t="s">
         <v>16</v>
@@ -635,64 +640,64 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>34</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>36</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>37</v>
       </c>
-      <c r="N2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q2">
         <v>200</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="1">
         <v>45742</v>
       </c>
       <c r="S2" s="1">
         <v>45742</v>
       </c>
       <c r="T2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" t="s">
         <v>40</v>
-      </c>
-      <c r="U2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" t="s">
-        <v>42</v>
       </c>
       <c r="W2">
         <v>98251671530</v>
@@ -703,7 +708,7 @@
         <v>19</v>
       </c>
       <c r="Y105" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z105" t="s">
         <v>20</v>

--- a/test copy.xlsx
+++ b/test copy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trc_auto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\trc_auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C8F9E8-EEA5-490D-B224-665744B30444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF452BA-07C7-4D02-ADB8-EA5DB9B878EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-2715" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,11 +161,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -192,7 +199,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,9 +549,9 @@
   </sheetPr>
   <dimension ref="A1:Z105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/test copy.xlsx
+++ b/test copy.xlsx
@@ -1,184 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\trc_auto\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF452BA-07C7-4D02-ADB8-EA5DB9B878EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-2715" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="20370" yWindow="-2715" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Logdata" sheetId="1" r:id="rId1"/>
+    <sheet name="Logdata" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
-  <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Staff name</t>
-  </si>
-  <si>
-    <t>Staff ID</t>
-  </si>
-  <si>
-    <t>Staff phone number</t>
-  </si>
-  <si>
-    <t>ក្រុមហ៊ុនស្នើសុំ-Requested Company:</t>
-  </si>
-  <si>
-    <t>ជួសជុលជូនក្រុមហ៊ុនឬអតិថិជន-Repair for company/customers:</t>
-  </si>
-  <si>
-    <t>ប្រភេទហេដ្ឋារចនាសម្ព័ន្ធ-Type of Infrastructure:</t>
-  </si>
-  <si>
-    <t>ប្រភេទនៃការជួសជុល-Overhead or Underground:</t>
-  </si>
-  <si>
-    <t>អាសយដ្ឋានចំនុចចាប់ផ្តើម(លេខផ្លូវ ភូមិ ឃុំ/សង្កាត់ ស្រុក/ខណ្ឌ ខេត្ត/រាជធានី)-Starting Address:</t>
-  </si>
-  <si>
-    <t>អាសយដ្ឋានចំណុចបញ្ចប់ (លេខផ្លូវ ភូមិ ឃុំ/សង្កាត់ ស្រុក/ខណ្ឌ ខេត្ត/រាជធានី)  -Ending Address:</t>
-  </si>
-  <si>
-    <t>ខេត្ត/ក្រុង</t>
-  </si>
-  <si>
-    <t>ចំណុចចាប់ផ្តើម រយៈទទឹងនិងបណ្តោយ (Start: Lat ,Long)</t>
-  </si>
-  <si>
-    <t>ចំណុចបញ្ចប់ រយៈទទឹងនិងបណ្តោយ (End: Lat ,Long)</t>
-  </si>
-  <si>
-    <t>ស្នើចុះថែទាំខ្សែក្នុងវង្វង់ចំណុចចាប់ផ្តើមនិងបញ្ចប់ Lat/Long ខាងលើ ដើម្បី៖</t>
-  </si>
-  <si>
-    <t>កាលបរិច្ឆេទនៃការកាត់ផ្តាច់-Date of Damage:</t>
-  </si>
-  <si>
-    <t>រូបភាពនៃស្ថានភាពការខូចខាតនៃខ្សែកាប្លិ៍ដោយមាន lat/long &lt;10MB (Picture of Damage Cable with lat/long &lt;10MB):</t>
-  </si>
-  <si>
-    <t>រូបភាពនៃគំនូសនៅលើ Google Map ដែលមានចំណុចចាប់ផ្តើមនិងបញ្ចប់ (Picture of drawing in google map with start and end lat/long):</t>
-  </si>
-  <si>
-    <t>Account number</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>Request to:</t>
-  </si>
-  <si>
-    <t>GIS</t>
-  </si>
-  <si>
-    <t>VTC-វៀតធេល (ខេមបូឌា)</t>
-  </si>
-  <si>
-    <t>ប្រវែងខ្សែកាប្លិ៍ដែលត្រូវជួសថ្មីគឺត្រូវតិចជាង២០០ម៉ែត្រ-Length of​ replacement broken cable must be less than 200m (ករណីប្រវែងខ្សែច្រើនជាង ២០០ម៉ែត្រក្រុមហ៊ុនត្រូវអនុវត្តនីតិវិធីសាងសង់ថ្មី- If length of cable is larger than 200m,company has to follow the ne</t>
-  </si>
-  <si>
-    <t>មូលហេតុនៃការកាត់ផ្តាច់ Cable Incident</t>
-  </si>
-  <si>
-    <t>កាលបរិច្ឆេទគ្រោងបញ្ចប់ការថែទាំ-Finished Date of Repairing:</t>
-  </si>
-  <si>
-    <t>Email Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer </t>
-  </si>
-  <si>
-    <t>Heng Kim</t>
-  </si>
-  <si>
-    <t>COC711155</t>
-  </si>
-  <si>
-    <t>0886466111</t>
-  </si>
-  <si>
-    <t>Backbone</t>
-  </si>
-  <si>
-    <t>8fo</t>
-  </si>
-  <si>
-    <t>ភូមិព្រៃកន្ទ្រង់  ឃុំធម្មតាអរ ស្រុកសំរោងទង ខេត្តកំពង់ស្ពឺ</t>
-  </si>
-  <si>
-    <t>ភូមិព្រៃកន្ទ្រង់  ឃុំធម្មតាអរ ស្រុកសំរោងទង ខេត្តកំពង់ស្</t>
-  </si>
-  <si>
-    <t>Kampong Speu</t>
-  </si>
-  <si>
-    <t>11.389672, 104.455495</t>
-  </si>
-  <si>
-    <t>11.389726, 104.454134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Car pull down cable 8fo </t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=11im8fT7b232386TzfOeiFX48_R-hF97Z</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=16jpxUStaOuj4-qSrMoTC4vxQM5X4JA3O</t>
-  </si>
-  <si>
-    <t>លើអាកាស</t>
-  </si>
-  <si>
-    <t>Fiber Optical Cable Slicing/Fiber Optical Cleaver, ជួសខ្សែកាប្លិ៍ថ្មី (ករណីនេះចំណុចចាប់ផ្តើមនិងបញ្ចប់ Lat/Long ត្រូវផ្សេងពីគ្នា A--&gt;B)</t>
-  </si>
-  <si>
-    <t>ចំនួនខ្សែកាប្លិ៍xចំនួនបណ្តូលខ្សែកាប្លិ៍ -Number of cable * Core:</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -197,9 +54,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -310,39 +167,99 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="5">
-    <tableStyle name="Logdata-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+  <tableStyles count="5" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Logdata-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="Access-Backbone-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Access-Backbone-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="secondRowStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Access-Backbone-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
+    <tableStyle name="Access-Backbone-style 2" pivot="0" count="2">
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="Lastmile-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
+    <tableStyle name="Lastmile-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="Lastmile-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
+    <tableStyle name="Lastmile-style 2" pivot="0" count="2">
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -543,9 +460,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:Z105"/>
   <sheetViews>
@@ -554,175 +472,280 @@
       <selection pane="bottomLeft" activeCell="J2" sqref="J1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="78" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="47.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="235.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col width="17.28515625" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="31.140625" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="41" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="51.85546875" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="83.28515625" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="78" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="13.85546875" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="47.42578125" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="235.42578125" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="14.7109375" bestFit="1" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" t="s">
-        <v>18</v>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Staff name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Staff ID</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Staff phone number</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ក្រុមហ៊ុនស្នើសុំ-Requested Company:</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ជួសជុលជូនក្រុមហ៊ុនឬអតិថិជន-Repair for company/customers:</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>ប្រភេទហេដ្ឋារចនាសម្ព័ន្ធ-Type of Infrastructure:</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>ប្រភេទនៃការជួសជុល-Overhead or Underground:</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>ចំនួនខ្សែកាប្លិ៍xចំនួនបណ្តូលខ្សែកាប្លិ៍ -Number of cable * Core:</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>អាសយដ្ឋានចំនុចចាប់ផ្តើម(លេខផ្លូវ ភូមិ ឃុំ/សង្កាត់ ស្រុក/ខណ្ឌ ខេត្ត/រាជធានី)-Starting Address:</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>អាសយដ្ឋានចំណុចបញ្ចប់ (លេខផ្លូវ ភូមិ ឃុំ/សង្កាត់ ស្រុក/ខណ្ឌ ខេត្ត/រាជធានី)  -Ending Address:</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>ខេត្ត/ក្រុង</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>ចំណុចចាប់ផ្តើម រយៈទទឹងនិងបណ្តោយ (Start: Lat ,Long)</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>ចំណុចបញ្ចប់ រយៈទទឹងនិងបណ្តោយ (End: Lat ,Long)</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>ស្នើចុះថែទាំខ្សែក្នុងវង្វង់ចំណុចចាប់ផ្តើមនិងបញ្ចប់ Lat/Long ខាងលើ ដើម្បី៖</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>ប្រវែងខ្សែកាប្លិ៍ដែលត្រូវជួសថ្មីគឺត្រូវតិចជាង២០០ម៉ែត្រ-Length of​ replacement broken cable must be less than 200m (ករណីប្រវែងខ្សែច្រើនជាង ២០០ម៉ែត្រក្រុមហ៊ុនត្រូវអនុវត្តនីតិវិធីសាងសង់ថ្មី- If length of cable is larger than 200m,company has to follow the ne</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>កាលបរិច្ឆេទនៃការកាត់ផ្តាច់-Date of Damage:</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>កាលបរិច្ឆេទគ្រោងបញ្ចប់ការថែទាំ-Finished Date of Repairing:</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>មូលហេតុនៃការកាត់ផ្តាច់ Cable Incident</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>រូបភាពនៃស្ថានភាពការខូចខាតនៃខ្សែកាប្លិ៍ដោយមាន lat/long &lt;10MB (Picture of Damage Cable with lat/long &lt;10MB):</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>រូបភាពនៃគំនូសនៅលើ Google Map ដែលមានចំណុចចាប់ផ្តើមនិងបញ្ចប់ (Picture of drawing in google map with start and end lat/long):</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Account number</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>45742.458304189815</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2">
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" t="n">
+        <v>45742.45830418981</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>GIS</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Heng Kim</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>COC711155</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0886466111</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>VTC-វៀតធេល (ខេមបូឌា)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Customer </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Backbone</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>លើអាកាស</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>8fo</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>ភូមិព្រៃកន្ទ្រង់  ឃុំធម្មតាអរ ស្រុកសំរោងទង ខេត្តកំពង់ស្ពឺ</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>ភូមិព្រៃកន្ទ្រង់  ឃុំធម្មតាអរ ស្រុកសំរោងទង ខេត្តកំពង់ស្</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Kampong Speu</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>11.389672, 104.455495</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>11.389726, 104.454134</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Fiber Optical Cable Slicing/Fiber Optical Cleaver, ជួសខ្សែកាប្លិ៍ថ្មី (ករណីនេះចំណុចចាប់ផ្តើមនិងបញ្ចប់ Lat/Long ត្រូវផ្សេងពីគ្នា A--&gt;B)</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
         <v>200</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="1" t="n">
         <v>45742</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="1" t="n">
         <v>45742</v>
       </c>
-      <c r="T2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2">
+      <c r="T2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Car pull down cable 8fo </t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/open?id=11im8fT7b232386TzfOeiFX48_R-hF97Z</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/open?id=16jpxUStaOuj4-qSrMoTC4vxQM5X4JA3O</t>
+        </is>
+      </c>
+      <c r="W2" t="n">
         <v>98251671530</v>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Inserted</t>
+        </is>
+      </c>
     </row>
-    <row r="105" spans="24:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X105" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y105" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z105" t="s">
-        <v>20</v>
+    <row r="3">
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Failed to insert row 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="Y105" t="inlineStr">
+        <is>
+          <t>Email Address</t>
+        </is>
+      </c>
+      <c r="Z105" t="inlineStr">
+        <is>
+          <t>Request to:</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
 </worksheet>
 </file>